--- a/config_Release/permission_hb_limit.xlsx
+++ b/config_Release/permission_hb_limit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main|玩家红包容量限制" sheetId="7" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>key|权限唯一标识</t>
   </si>
@@ -277,14 +282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,159 +308,21 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,194 +335,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -684,255 +359,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -944,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -963,63 +396,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1277,19 +666,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.375" style="1" customWidth="1"/>
@@ -1308,7 +697,7 @@
     <col min="17" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:10">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +715,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1344,12 +733,12 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" ht="16.5" spans="1:16">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1362,7 +751,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +769,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +787,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +805,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1434,7 +823,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +841,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +859,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +877,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +895,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +913,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1542,7 +931,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1560,7 +949,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1572,7 +961,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1584,7 +973,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1596,7 +985,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1608,7 +997,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1620,7 +1009,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1632,7 +1021,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1644,7 +1033,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" ht="16.5" spans="1:16">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1656,7 +1045,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -1667,7 +1056,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="C24" s="5"/>
       <c r="F24" s="2"/>
@@ -1677,7 +1066,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" ht="16.5" spans="1:16">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
       <c r="F25" s="2"/>
@@ -1687,7 +1076,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1698,7 +1087,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1710,7 +1099,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" ht="16.5" spans="1:16">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1722,7 +1111,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1734,7 +1123,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1746,7 +1135,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" ht="16.5" spans="1:16">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1758,7 +1147,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" ht="16.5" spans="1:16">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1770,7 +1159,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" ht="16.5" spans="1:16">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1782,7 +1171,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" ht="16.5" spans="1:16">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
@@ -1794,7 +1183,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" ht="16.5" spans="1:16">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
@@ -1805,7 +1194,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" ht="16.5" spans="1:16">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
@@ -1816,7 +1205,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
@@ -1825,7 +1214,7 @@
       <c r="H37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" ht="16.5" spans="1:16">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
@@ -1836,7 +1225,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" ht="16.5" spans="1:16">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
@@ -1847,7 +1236,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" ht="16.5" spans="1:16">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
@@ -1858,7 +1247,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" ht="16.5" spans="1:16">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -1869,7 +1258,7 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" ht="16.5" spans="1:16">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
@@ -1882,7 +1271,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" ht="16.5" spans="1:16">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="5"/>
@@ -1895,7 +1284,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" ht="16.5" spans="1:16">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="5"/>
@@ -1908,7 +1297,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" ht="16.5" spans="1:14">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="5"/>
@@ -1920,7 +1309,7 @@
       <c r="J45" s="2"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" ht="16.5" spans="1:14">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="5"/>
@@ -1932,7 +1321,7 @@
       <c r="J46" s="2"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" ht="16.5" spans="1:14">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="5"/>
@@ -1944,7 +1333,7 @@
       <c r="J47" s="2"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="16.5" spans="1:14">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="5"/>
@@ -1956,7 +1345,7 @@
       <c r="J48" s="2"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="5"/>
@@ -1967,7 +1356,7 @@
       <c r="H49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="5"/>
@@ -1978,7 +1367,7 @@
       <c r="H50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
@@ -1989,7 +1378,7 @@
       <c r="H51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="5"/>
@@ -2000,7 +1389,7 @@
       <c r="H52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" ht="16.5" spans="1:16">
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="5"/>
@@ -2013,7 +1402,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" ht="16.5" spans="1:16">
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="5"/>
@@ -2026,7 +1415,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" ht="16.5" spans="1:16">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="5"/>
@@ -2039,7 +1428,7 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
     </row>
-    <row r="56" ht="16.5" spans="1:16">
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="5"/>
@@ -2052,20 +1441,20 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="5"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="5"/>
       <c r="F58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="5"/>
@@ -2073,7 +1462,7 @@
       <c r="H59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="5"/>
@@ -2081,7 +1470,7 @@
       <c r="H60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="5"/>
@@ -2089,7 +1478,7 @@
       <c r="H61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="5"/>
@@ -2097,7 +1486,7 @@
       <c r="H62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="5"/>
@@ -2105,7 +1494,7 @@
       <c r="H63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="5"/>
@@ -2113,7 +1502,7 @@
       <c r="H64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="5"/>
@@ -2121,7 +1510,7 @@
       <c r="H65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="5"/>
@@ -2129,12 +1518,12 @@
       <c r="H66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/permission_hb_limit.xlsx
+++ b/config_Release/permission_hb_limit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>key|权限唯一标识</t>
   </si>
@@ -675,7 +675,7 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
